--- a/BOM-Combined-LCSC-CartFromSite.xlsx
+++ b/BOM-Combined-LCSC-CartFromSite.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\IoTAdvanced-Mesh-Gateway\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="266">
   <si>
     <t>Manufacture Part Number</t>
   </si>
@@ -818,23 +822,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -845,31 +840,38 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1159,34 +1161,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="119.11377" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="42.418213" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="119.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1221,11 +1221,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2"/>
       <c r="C2" t="s">
         <v>12</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>5</v>
       </c>
       <c r="G2">
-        <v>0.0862</v>
+        <v>8.6199999999999999E-2</v>
       </c>
       <c r="H2">
         <v>55775</v>
@@ -1254,11 +1253,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3"/>
       <c r="C3" t="s">
         <v>19</v>
       </c>
@@ -1272,7 +1270,7 @@
         <v>20</v>
       </c>
       <c r="G3">
-        <v>0.0364</v>
+        <v>3.6400000000000002E-2</v>
       </c>
       <c r="H3">
         <v>35960</v>
@@ -1287,11 +1285,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4"/>
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -1305,7 +1302,7 @@
         <v>15</v>
       </c>
       <c r="G4">
-        <v>0.1117</v>
+        <v>0.11169999999999999</v>
       </c>
       <c r="H4">
         <v>17990</v>
@@ -1320,11 +1317,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5"/>
       <c r="C5" t="s">
         <v>27</v>
       </c>
@@ -1338,7 +1334,7 @@
         <v>20</v>
       </c>
       <c r="G5">
-        <v>0.0389</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="H5">
         <v>37760</v>
@@ -1353,11 +1349,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6"/>
       <c r="C6" t="s">
         <v>30</v>
       </c>
@@ -1371,7 +1366,7 @@
         <v>10</v>
       </c>
       <c r="G6">
-        <v>0.0762</v>
+        <v>7.6200000000000004E-2</v>
       </c>
       <c r="H6">
         <v>20755</v>
@@ -1386,11 +1381,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B7"/>
       <c r="C7" t="s">
         <v>34</v>
       </c>
@@ -1404,7 +1398,7 @@
         <v>50</v>
       </c>
       <c r="G7">
-        <v>0.0115</v>
+        <v>1.15E-2</v>
       </c>
       <c r="H7">
         <v>32050</v>
@@ -1419,11 +1413,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B8"/>
       <c r="C8" t="s">
         <v>39</v>
       </c>
@@ -1452,11 +1445,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
-      <c r="B9"/>
       <c r="C9" t="s">
         <v>44</v>
       </c>
@@ -1485,11 +1477,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
-      <c r="B10"/>
       <c r="C10" t="s">
         <v>48</v>
       </c>
@@ -1503,7 +1494,7 @@
         <v>20</v>
       </c>
       <c r="G10">
-        <v>0.0451</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="H10">
         <v>58720</v>
@@ -1518,11 +1509,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="B11"/>
       <c r="C11" t="s">
         <v>52</v>
       </c>
@@ -1536,7 +1526,7 @@
         <v>20</v>
       </c>
       <c r="G11">
-        <v>0.044</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="H11">
         <v>45190</v>
@@ -1551,11 +1541,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
-      <c r="B12"/>
       <c r="C12" t="s">
         <v>57</v>
       </c>
@@ -1569,7 +1558,7 @@
         <v>10</v>
       </c>
       <c r="G12">
-        <v>0.0789</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="H12">
         <v>2370</v>
@@ -1584,11 +1573,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
-      <c r="B13"/>
       <c r="C13" t="s">
         <v>61</v>
       </c>
@@ -1602,7 +1590,7 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <v>0.0801</v>
+        <v>8.0100000000000005E-2</v>
       </c>
       <c r="H13">
         <v>3120</v>
@@ -1617,11 +1605,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
-      <c r="B14"/>
       <c r="C14" t="s">
         <v>64</v>
       </c>
@@ -1635,7 +1622,7 @@
         <v>20</v>
       </c>
       <c r="G14">
-        <v>0.0206</v>
+        <v>2.06E-2</v>
       </c>
       <c r="H14">
         <v>2900</v>
@@ -1650,11 +1637,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>68</v>
       </c>
-      <c r="B15"/>
       <c r="C15" t="s">
         <v>69</v>
       </c>
@@ -1668,7 +1654,7 @@
         <v>50</v>
       </c>
       <c r="G15">
-        <v>0.0166</v>
+        <v>1.66E-2</v>
       </c>
       <c r="H15">
         <v>672150</v>
@@ -1683,11 +1669,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>72</v>
       </c>
-      <c r="B16"/>
       <c r="C16" t="s">
         <v>73</v>
       </c>
@@ -1701,7 +1686,7 @@
         <v>50</v>
       </c>
       <c r="G16">
-        <v>0.0106</v>
+        <v>1.06E-2</v>
       </c>
       <c r="H16">
         <v>313750</v>
@@ -1716,11 +1701,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
-      <c r="B17"/>
       <c r="C17" t="s">
         <v>76</v>
       </c>
@@ -1734,7 +1718,7 @@
         <v>40</v>
       </c>
       <c r="G17">
-        <v>0.0211</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="H17">
         <v>4940</v>
@@ -1749,11 +1733,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
-      <c r="B18"/>
       <c r="C18" t="s">
         <v>80</v>
       </c>
@@ -1767,7 +1750,7 @@
         <v>20</v>
       </c>
       <c r="G18">
-        <v>0.0488</v>
+        <v>4.8800000000000003E-2</v>
       </c>
       <c r="H18">
         <v>2400</v>
@@ -1782,11 +1765,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>82</v>
       </c>
-      <c r="B19"/>
       <c r="C19" t="s">
         <v>83</v>
       </c>
@@ -1815,11 +1797,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>86</v>
       </c>
-      <c r="B20"/>
       <c r="C20" t="s">
         <v>87</v>
       </c>
@@ -1848,11 +1829,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>90</v>
       </c>
-      <c r="B21"/>
       <c r="C21" t="s">
         <v>91</v>
       </c>
@@ -1866,7 +1846,7 @@
         <v>5</v>
       </c>
       <c r="G21">
-        <v>0.523</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="H21">
         <v>677</v>
@@ -1881,11 +1861,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>94</v>
       </c>
-      <c r="B22"/>
       <c r="C22" t="s">
         <v>95</v>
       </c>
@@ -1899,7 +1878,7 @@
         <v>5</v>
       </c>
       <c r="G22">
-        <v>0.09379999999999999</v>
+        <v>9.3799999999999994E-2</v>
       </c>
       <c r="H22">
         <v>95</v>
@@ -1914,11 +1893,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>98</v>
       </c>
-      <c r="B23"/>
       <c r="C23" t="s">
         <v>99</v>
       </c>
@@ -1947,11 +1925,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>102</v>
       </c>
-      <c r="B24"/>
       <c r="C24" t="s">
         <v>103</v>
       </c>
@@ -1965,7 +1942,7 @@
         <v>50</v>
       </c>
       <c r="G24">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="H24">
         <v>18600</v>
@@ -1980,11 +1957,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>106</v>
       </c>
-      <c r="B25"/>
       <c r="C25" t="s">
         <v>107</v>
       </c>
@@ -1998,7 +1974,7 @@
         <v>30</v>
       </c>
       <c r="G25">
-        <v>0.07630000000000001</v>
+        <v>7.6300000000000007E-2</v>
       </c>
       <c r="H25">
         <v>6660</v>
@@ -2013,11 +1989,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>110</v>
       </c>
-      <c r="B26"/>
       <c r="C26" t="s">
         <v>111</v>
       </c>
@@ -2031,7 +2006,7 @@
         <v>50</v>
       </c>
       <c r="G26">
-        <v>0.0053</v>
+        <v>5.3E-3</v>
       </c>
       <c r="H26">
         <v>650</v>
@@ -2046,11 +2021,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>114</v>
       </c>
-      <c r="B27"/>
       <c r="C27" t="s">
         <v>115</v>
       </c>
@@ -2064,7 +2038,7 @@
         <v>20</v>
       </c>
       <c r="G27">
-        <v>0.0384</v>
+        <v>3.8399999999999997E-2</v>
       </c>
       <c r="H27">
         <v>1230</v>
@@ -2079,11 +2053,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>117</v>
       </c>
-      <c r="B28"/>
       <c r="C28" t="s">
         <v>118</v>
       </c>
@@ -2097,7 +2070,7 @@
         <v>25</v>
       </c>
       <c r="G28">
-        <v>0.0829</v>
+        <v>8.2900000000000001E-2</v>
       </c>
       <c r="H28">
         <v>4025</v>
@@ -2112,11 +2085,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>120</v>
       </c>
-      <c r="B29"/>
       <c r="C29" t="s">
         <v>121</v>
       </c>
@@ -2130,7 +2102,7 @@
         <v>50</v>
       </c>
       <c r="G29">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H29">
         <v>4750</v>
@@ -2145,11 +2117,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>124</v>
       </c>
-      <c r="B30"/>
       <c r="C30" t="s">
         <v>125</v>
       </c>
@@ -2163,7 +2134,7 @@
         <v>20</v>
       </c>
       <c r="G30">
-        <v>0.0954</v>
+        <v>9.5399999999999999E-2</v>
       </c>
       <c r="H30">
         <v>3005</v>
@@ -2178,11 +2149,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>127</v>
       </c>
-      <c r="B31"/>
       <c r="C31" t="s">
         <v>128</v>
       </c>
@@ -2196,7 +2166,7 @@
         <v>20</v>
       </c>
       <c r="G31">
-        <v>0.0885</v>
+        <v>8.8499999999999995E-2</v>
       </c>
       <c r="H31">
         <v>15070</v>
@@ -2211,11 +2181,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>130</v>
       </c>
-      <c r="B32"/>
       <c r="C32" t="s">
         <v>131</v>
       </c>
@@ -2229,7 +2198,7 @@
         <v>50</v>
       </c>
       <c r="G32">
-        <v>0.0053</v>
+        <v>5.3E-3</v>
       </c>
       <c r="H32">
         <v>4650</v>
@@ -2244,11 +2213,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>133</v>
       </c>
-      <c r="B33"/>
       <c r="C33" t="s">
         <v>134</v>
       </c>
@@ -2262,7 +2230,7 @@
         <v>50</v>
       </c>
       <c r="G33">
-        <v>0.0059</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="H33">
         <v>25800</v>
@@ -2277,11 +2245,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>136</v>
       </c>
-      <c r="B34"/>
       <c r="C34" t="s">
         <v>137</v>
       </c>
@@ -2295,7 +2262,7 @@
         <v>50</v>
       </c>
       <c r="G34">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H34">
         <v>8850</v>
@@ -2310,11 +2277,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>139</v>
       </c>
-      <c r="B35"/>
       <c r="C35" t="s">
         <v>140</v>
       </c>
@@ -2328,7 +2294,7 @@
         <v>20</v>
       </c>
       <c r="G35">
-        <v>0.0219</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="H35">
         <v>920</v>
@@ -2343,11 +2309,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>142</v>
       </c>
-      <c r="B36"/>
       <c r="C36" t="s">
         <v>143</v>
       </c>
@@ -2361,7 +2326,7 @@
         <v>50</v>
       </c>
       <c r="G36">
-        <v>0.0091</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="H36">
         <v>3750</v>
@@ -2376,11 +2341,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>145</v>
       </c>
-      <c r="B37"/>
       <c r="C37" t="s">
         <v>146</v>
       </c>
@@ -2394,7 +2358,7 @@
         <v>50</v>
       </c>
       <c r="G37">
-        <v>0.0055</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="H37">
         <v>39950</v>
@@ -2409,11 +2373,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>149</v>
       </c>
-      <c r="B38"/>
       <c r="C38" t="s">
         <v>150</v>
       </c>
@@ -2427,7 +2390,7 @@
         <v>20</v>
       </c>
       <c r="G38">
-        <v>0.0597</v>
+        <v>5.9700000000000003E-2</v>
       </c>
       <c r="H38">
         <v>16030</v>
@@ -2442,11 +2405,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>153</v>
       </c>
-      <c r="B39"/>
       <c r="C39" t="s">
         <v>154</v>
       </c>
@@ -2460,7 +2422,7 @@
         <v>20</v>
       </c>
       <c r="G39">
-        <v>0.0872</v>
+        <v>8.72E-2</v>
       </c>
       <c r="H39">
         <v>8520</v>
@@ -2475,11 +2437,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>156</v>
       </c>
-      <c r="B40"/>
       <c r="C40" t="s">
         <v>157</v>
       </c>
@@ -2493,7 +2454,7 @@
         <v>50</v>
       </c>
       <c r="G40">
-        <v>0.0054</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="H40">
         <v>10800</v>
@@ -2508,11 +2469,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>159</v>
       </c>
-      <c r="B41"/>
       <c r="C41" t="s">
         <v>160</v>
       </c>
@@ -2541,11 +2501,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>163</v>
       </c>
-      <c r="B42"/>
       <c r="C42" t="s">
         <v>164</v>
       </c>
@@ -2574,11 +2533,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>166</v>
       </c>
-      <c r="B43"/>
       <c r="C43" t="s">
         <v>167</v>
       </c>
@@ -2592,7 +2550,7 @@
         <v>5</v>
       </c>
       <c r="G43">
-        <v>3.515</v>
+        <v>3.5150000000000001</v>
       </c>
       <c r="H43">
         <v>447</v>
@@ -2607,11 +2565,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>170</v>
       </c>
-      <c r="B44"/>
       <c r="C44" t="s">
         <v>171</v>
       </c>
@@ -2640,11 +2597,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>174</v>
       </c>
-      <c r="B45"/>
       <c r="C45" t="s">
         <v>175</v>
       </c>
@@ -2658,7 +2614,7 @@
         <v>5</v>
       </c>
       <c r="G45">
-        <v>0.5915</v>
+        <v>0.59150000000000003</v>
       </c>
       <c r="H45">
         <v>3713</v>
@@ -2673,11 +2629,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>178</v>
       </c>
-      <c r="B46"/>
       <c r="C46" t="s">
         <v>179</v>
       </c>
@@ -2706,11 +2661,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>182</v>
       </c>
-      <c r="B47"/>
       <c r="C47" t="s">
         <v>183</v>
       </c>
@@ -2739,11 +2693,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>186</v>
       </c>
-      <c r="B48"/>
       <c r="C48" t="s">
         <v>187</v>
       </c>
@@ -2757,7 +2710,7 @@
         <v>50</v>
       </c>
       <c r="G48">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H48">
         <v>4518000</v>
@@ -2772,11 +2725,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>189</v>
       </c>
-      <c r="B49"/>
       <c r="C49" t="s">
         <v>190</v>
       </c>
@@ -2790,7 +2742,7 @@
         <v>50</v>
       </c>
       <c r="G49">
-        <v>0.0108</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="H49">
         <v>179300</v>
@@ -2805,11 +2757,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>192</v>
       </c>
-      <c r="B50"/>
       <c r="C50" t="s">
         <v>193</v>
       </c>
@@ -2823,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="G50">
-        <v>0.09279999999999999</v>
+        <v>9.2799999999999994E-2</v>
       </c>
       <c r="H50">
         <v>111610</v>
@@ -2838,11 +2789,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>196</v>
       </c>
-      <c r="B51"/>
       <c r="C51" t="s">
         <v>197</v>
       </c>
@@ -2856,7 +2806,7 @@
         <v>50</v>
       </c>
       <c r="G51">
-        <v>0.0092</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="H51">
         <v>284950</v>
@@ -2871,11 +2821,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>199</v>
       </c>
-      <c r="B52"/>
       <c r="C52" t="s">
         <v>200</v>
       </c>
@@ -2904,11 +2853,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>202</v>
       </c>
-      <c r="B53"/>
       <c r="C53" t="s">
         <v>203</v>
       </c>
@@ -2922,7 +2870,7 @@
         <v>5</v>
       </c>
       <c r="G53">
-        <v>0.0847</v>
+        <v>8.4699999999999998E-2</v>
       </c>
       <c r="H53">
         <v>11060</v>
@@ -2937,11 +2885,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>206</v>
       </c>
-      <c r="B54"/>
       <c r="C54" t="s">
         <v>207</v>
       </c>
@@ -2955,7 +2902,7 @@
         <v>15</v>
       </c>
       <c r="G54">
-        <v>0.0861</v>
+        <v>8.6099999999999996E-2</v>
       </c>
       <c r="H54">
         <v>3770</v>
@@ -2970,11 +2917,10 @@
         <v>210</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>211</v>
       </c>
-      <c r="B55"/>
       <c r="C55" t="s">
         <v>212</v>
       </c>
@@ -2988,7 +2934,7 @@
         <v>50</v>
       </c>
       <c r="G55">
-        <v>0.0128</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="H55">
         <v>201250</v>
@@ -3003,11 +2949,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>214</v>
       </c>
-      <c r="B56"/>
       <c r="C56" t="s">
         <v>215</v>
       </c>
@@ -3036,11 +2981,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>217</v>
       </c>
-      <c r="B57"/>
       <c r="C57" t="s">
         <v>218</v>
       </c>
@@ -3054,7 +2998,7 @@
         <v>20</v>
       </c>
       <c r="G57">
-        <v>0.0227</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="H57">
         <v>22260</v>
@@ -3069,11 +3013,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>220</v>
       </c>
-      <c r="B58"/>
       <c r="C58" t="s">
         <v>221</v>
       </c>
@@ -3087,7 +3030,7 @@
         <v>50</v>
       </c>
       <c r="G58">
-        <v>0.0153</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="H58">
         <v>83350</v>
@@ -3102,11 +3045,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>224</v>
       </c>
-      <c r="B59"/>
       <c r="C59" t="s">
         <v>225</v>
       </c>
@@ -3120,7 +3062,7 @@
         <v>5</v>
       </c>
       <c r="G59">
-        <v>0.2315</v>
+        <v>0.23150000000000001</v>
       </c>
       <c r="H59">
         <v>6</v>
@@ -3135,11 +3077,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>227</v>
       </c>
-      <c r="B60"/>
       <c r="C60" t="s">
         <v>228</v>
       </c>
@@ -3153,7 +3094,7 @@
         <v>10</v>
       </c>
       <c r="G60">
-        <v>0.3084</v>
+        <v>0.30840000000000001</v>
       </c>
       <c r="H60">
         <v>377</v>
@@ -3168,11 +3109,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>231</v>
       </c>
-      <c r="B61"/>
       <c r="C61" t="s">
         <v>232</v>
       </c>
@@ -3201,11 +3141,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>235</v>
       </c>
-      <c r="B62"/>
       <c r="C62" t="s">
         <v>236</v>
       </c>
@@ -3219,7 +3158,7 @@
         <v>50</v>
       </c>
       <c r="G62">
-        <v>0.0053</v>
+        <v>5.3E-3</v>
       </c>
       <c r="H62">
         <v>650</v>
@@ -3234,11 +3173,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>238</v>
       </c>
-      <c r="B63"/>
       <c r="C63" t="s">
         <v>239</v>
       </c>
@@ -3252,7 +3190,7 @@
         <v>50</v>
       </c>
       <c r="G63">
-        <v>0.0053</v>
+        <v>5.3E-3</v>
       </c>
       <c r="H63">
         <v>4000</v>
@@ -3267,11 +3205,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>241</v>
       </c>
-      <c r="B64"/>
       <c r="C64" t="s">
         <v>242</v>
       </c>
@@ -3285,7 +3222,7 @@
         <v>50</v>
       </c>
       <c r="G64">
-        <v>0.0056</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="H64">
         <v>250</v>
@@ -3300,11 +3237,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>244</v>
       </c>
-      <c r="B65"/>
       <c r="C65" t="s">
         <v>245</v>
       </c>
@@ -3318,7 +3254,7 @@
         <v>50</v>
       </c>
       <c r="G65">
-        <v>0.0053</v>
+        <v>5.3E-3</v>
       </c>
       <c r="H65">
         <v>1200</v>
@@ -3333,11 +3269,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>247</v>
       </c>
-      <c r="B66"/>
       <c r="C66" t="s">
         <v>248</v>
       </c>
@@ -3351,7 +3286,7 @@
         <v>5</v>
       </c>
       <c r="G66">
-        <v>0.1345</v>
+        <v>0.13450000000000001</v>
       </c>
       <c r="H66">
         <v>15755</v>
@@ -3366,11 +3301,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>251</v>
       </c>
-      <c r="B67"/>
       <c r="C67" t="s">
         <v>252</v>
       </c>
@@ -3399,11 +3333,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>255</v>
       </c>
-      <c r="B68"/>
       <c r="C68" t="s">
         <v>256</v>
       </c>
@@ -3417,7 +3350,7 @@
         <v>5</v>
       </c>
       <c r="G68">
-        <v>4.5155</v>
+        <v>4.5155000000000003</v>
       </c>
       <c r="H68">
         <v>22124</v>
@@ -3432,11 +3365,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>258</v>
       </c>
-      <c r="B69"/>
       <c r="C69" t="s">
         <v>259</v>
       </c>
@@ -3450,7 +3382,7 @@
         <v>10</v>
       </c>
       <c r="G69">
-        <v>0.0688</v>
+        <v>6.88E-2</v>
       </c>
       <c r="H69">
         <v>540</v>
@@ -3465,11 +3397,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>262</v>
       </c>
-      <c r="B70"/>
       <c r="C70" t="s">
         <v>263</v>
       </c>
@@ -3483,7 +3414,7 @@
         <v>5</v>
       </c>
       <c r="G70">
-        <v>5.3107</v>
+        <v>5.3106999999999998</v>
       </c>
       <c r="H70">
         <v>14</v>
@@ -3499,17 +3430,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="" right="" top="" bottom="" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>